--- a/dist/document/dest/2020/10/doctors/96.xlsx
+++ b/dist/document/dest/2020/10/doctors/96.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
-        <v>46000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>19845</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>112</v>
       </c>
-      <c r="C4" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>699</v>
       </c>
-      <c r="C5" s="1">
-        <v>1607700</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>204</v>
       </c>
-      <c r="C6" s="1">
-        <v>1795200</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1868</v>
       </c>
-      <c r="C7" s="1">
-        <v>10741000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>84</v>
       </c>
-      <c r="C8" s="1">
-        <v>693000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>124</v>
       </c>
-      <c r="C9" s="1">
-        <v>927520</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>252</v>
       </c>
-      <c r="C10" s="1">
-        <v>753480</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
-        <v>656000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>860</v>
       </c>
-      <c r="C12" s="1">
-        <v>5959800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1399</v>
       </c>
-      <c r="C13" s="1">
-        <v>10464520</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>104580</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>753</v>
       </c>
-      <c r="C15" s="1">
-        <v>1645305</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>168</v>
       </c>
-      <c r="C16" s="1">
-        <v>1644720</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <v>100100</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>2188</v>
       </c>
-      <c r="C18" s="1">
-        <v>5645040</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>730</v>
       </c>
-      <c r="C19" s="1">
-        <v>10238250</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>142</v>
       </c>
-      <c r="C20" s="1">
-        <v>2030600</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1598</v>
       </c>
-      <c r="C21" s="1">
-        <v>4042940</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>176</v>
       </c>
-      <c r="C22" s="1">
-        <v>1012000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>66</v>
       </c>
-      <c r="C23" s="1">
-        <v>227700</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>119</v>
       </c>
-      <c r="C24" s="1">
-        <v>430780</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>413</v>
       </c>
-      <c r="C25" s="1">
-        <v>4997300</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>94</v>
       </c>
-      <c r="C26" s="1">
-        <v>324300</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>256</v>
       </c>
-      <c r="C27" s="1">
-        <v>794880</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>80</v>
       </c>
-      <c r="C28" s="1">
-        <v>67200</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>133</v>
       </c>
-      <c r="C29" s="1">
-        <v>39900</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>859</v>
       </c>
-      <c r="C30" s="1">
-        <v>2864765</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
-        <v>446600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>191</v>
       </c>
-      <c r="C32" s="1">
-        <v>2941400</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>208</v>
       </c>
-      <c r="C33" s="1">
-        <v>2059200</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>481</v>
       </c>
-      <c r="C34" s="1">
-        <v>1438190</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
-        <v>156800</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>28</v>
       </c>
-      <c r="C36" s="1">
-        <v>106120</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>161</v>
       </c>
-      <c r="C37" s="1">
-        <v>740600</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>140</v>
       </c>
-      <c r="C38" s="1">
-        <v>800800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>56</v>
       </c>
-      <c r="C39" s="1">
-        <v>199640</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>140</v>
       </c>
-      <c r="C40" s="1">
-        <v>531300</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>196</v>
       </c>
-      <c r="C41" s="1">
-        <v>301840</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>304</v>
       </c>
-      <c r="C42" s="1">
-        <v>6019200</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>37</v>
       </c>
-      <c r="C43" s="1">
-        <v>208495</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>154</v>
       </c>
-      <c r="C44" s="1">
-        <v>1067220</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>58</v>
       </c>
-      <c r="C45" s="1">
-        <v>692520</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>756</v>
       </c>
-      <c r="C46" s="1">
-        <v>5654880</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>112</v>
       </c>
-      <c r="C47" s="1">
-        <v>618240</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>347</v>
       </c>
-      <c r="C48" s="1">
-        <v>2023010</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>68</v>
       </c>
-      <c r="C49" s="1">
-        <v>1099560</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>638</v>
       </c>
-      <c r="C50" s="1">
-        <v>2054360</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>690</v>
       </c>
-      <c r="C51" s="1">
-        <v>2063100</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>28</v>
       </c>
-      <c r="C52" s="1">
-        <v>135240</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>63</v>
       </c>
-      <c r="C53" s="1">
-        <v>80010</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>50</v>
       </c>
-      <c r="C54" s="1">
-        <v>357500</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>70</v>
       </c>
-      <c r="C55" s="1">
-        <v>392700</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>28</v>
       </c>
-      <c r="C56" s="1">
-        <v>215600</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>28</v>
       </c>
-      <c r="C57" s="1">
-        <v>68880</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>639</v>
       </c>
-      <c r="C58" s="1">
-        <v>2571975</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>30</v>
       </c>
-      <c r="C59" s="1">
-        <v>198000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>339</v>
       </c>
-      <c r="C60" s="1">
-        <v>1559400</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>413</v>
       </c>
-      <c r="C61" s="1">
-        <v>2374750</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>247</v>
       </c>
-      <c r="C62" s="1">
-        <v>1879670</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>42</v>
       </c>
-      <c r="C63" s="1">
-        <v>353430</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>70</v>
       </c>
-      <c r="C64" s="1">
-        <v>70000</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>84</v>
       </c>
-      <c r="C65" s="1">
-        <v>173460</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>522</v>
       </c>
-      <c r="C66" s="1">
-        <v>3445200</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>49</v>
       </c>
-      <c r="C67" s="1">
-        <v>243530</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>444</v>
       </c>
-      <c r="C68" s="1">
-        <v>3893880</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>887</v>
       </c>
-      <c r="C69" s="1">
-        <v>5756630</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>126</v>
       </c>
-      <c r="C70" s="1">
-        <v>970200</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>161</v>
       </c>
-      <c r="C71" s="1">
-        <v>1416800</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>168</v>
       </c>
-      <c r="C72" s="1">
-        <v>1201200</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>422</v>
       </c>
-      <c r="C73" s="1">
-        <v>1673230</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>406</v>
       </c>
-      <c r="C74" s="1">
-        <v>3126200</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>84</v>
       </c>
-      <c r="C75" s="1">
-        <v>729960</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>1491</v>
       </c>
-      <c r="C76" s="1">
-        <v>8058855</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="1">
-        <v>359400</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>12</v>
       </c>
-      <c r="C78" s="1">
-        <v>40020</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>42</v>
       </c>
-      <c r="C79" s="1">
-        <v>49560</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>66</v>
       </c>
-      <c r="C80" s="1">
-        <v>56100</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>829</v>
       </c>
-      <c r="C81" s="1">
-        <v>9027810</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>314</v>
       </c>
-      <c r="C82" s="1">
-        <v>2383260</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>1102</v>
       </c>
-      <c r="C83" s="1">
-        <v>9455160</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>363</v>
       </c>
-      <c r="C84" s="1">
-        <v>1252350</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>5335</v>
       </c>
-      <c r="C85" s="1">
-        <v>10429925</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>210</v>
       </c>
-      <c r="C86" s="1">
-        <v>507150</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>56</v>
       </c>
-      <c r="C87" s="1">
-        <v>161000</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>116</v>
       </c>
-      <c r="C88" s="1">
-        <v>2092640</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>2</v>
       </c>
-      <c r="C89" s="1">
-        <v>139000</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>28</v>
       </c>
-      <c r="C90" s="1">
-        <v>111944</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>56</v>
       </c>
-      <c r="C91" s="1">
-        <v>270480</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>263</v>
       </c>
-      <c r="C92" s="1">
-        <v>1391270</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>42</v>
       </c>
-      <c r="C93" s="1">
-        <v>438900</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1417,7 +1141,7 @@
         <v>34065</v>
       </c>
       <c r="C94" s="1">
-        <v>181133769</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/96.xlsx
+++ b/dist/document/dest/2020/10/doctors/96.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aceronko (Acenocoumarol 1mg)</v>
+        <v>Acetium (Lozenge - quit smoking)</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="3">
@@ -410,15 +413,21 @@
         <v>Air-x (Simethicone 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>79380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B4" s="1">
-        <v>112</v>
+        <v>299</v>
+      </c>
+      <c r="C4" s="1">
+        <v>687700</v>
       </c>
     </row>
     <row r="5">
@@ -426,727 +435,2589 @@
         <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B5" s="1">
-        <v>699</v>
+        <v>244</v>
+      </c>
+      <c r="C5" s="1">
+        <v>561200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Aluantine (Almagate 500mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B6" s="1">
-        <v>204</v>
+        <v>168</v>
+      </c>
+      <c r="C6" s="1">
+        <v>386400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>1868</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>492800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>124</v>
+        <v>1048</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6026000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>252</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>241500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bar 60v/lọ</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>32</v>
+        <v>644</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3703000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>860</v>
+        <v>140</v>
+      </c>
+      <c r="C12" s="1">
+        <v>805000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1399</v>
+        <v>98</v>
+      </c>
+      <c r="C13" s="1">
+        <v>563500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>137</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1130250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>753</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>168</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B17" s="1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>149600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B18" s="1">
-        <v>2188</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>209440</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B19" s="1">
-        <v>730</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>571750</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B20" s="1">
-        <v>142</v>
+        <v>84</v>
+      </c>
+      <c r="C20" s="1">
+        <v>646800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Carvedol (Carvedilol 6.25mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B21" s="1">
-        <v>1598</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B22" s="1">
-        <v>176</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>225500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B23" s="1">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>574000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B24" s="1">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20500</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>413</v>
+        <v>259</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1794870</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="C26" s="1">
+        <v>582120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>256</v>
+        <v>236</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1635480</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Digoxine qualy 0.25mg</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>80</v>
+        <v>129</v>
+      </c>
+      <c r="C28" s="1">
+        <v>893970</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Doaspin 81mg (Acetylsalicylic)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>133</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="1">
+        <v>291060</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B30" s="1">
-        <v>859</v>
+        <v>87</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1600800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>363</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2715240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>191</v>
+        <v>378</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2827440</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>208</v>
+        <v>280</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2094400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>481</v>
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>52290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Forlax (Macrogol 4000)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
+        <v>385</v>
+      </c>
+      <c r="C35" s="1">
+        <v>841225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Gastropulgite (Attapulgite, hydroxide aluminium-carbonate magnesium)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>28</v>
+        <v>413</v>
+      </c>
+      <c r="C36" s="1">
+        <v>902405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>161</v>
+        <v>126</v>
+      </c>
+      <c r="C37" s="1">
+        <v>275310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Brexin (Piroxicam) 20mg</v>
       </c>
       <c r="B38" s="1">
-        <v>140</v>
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>394310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Brexin (Piroxicam) 20mg</v>
       </c>
       <c r="B39" s="1">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>91700</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Brexin (Piroxicam) 20mg</v>
       </c>
       <c r="B40" s="1">
-        <v>140</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>357630</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>196</v>
+        <v>320</v>
+      </c>
+      <c r="C41" s="1">
+        <v>825600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>304</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="1">
+        <v>216720</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>37</v>
+        <v>532</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1372560</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Lertazin (Levocetirizine 5mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>154</v>
+        <v>476</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1228080</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>58</v>
+        <v>154</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2159850</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>756</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>589050</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>112</v>
+        <v>561</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7868025</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>347</v>
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>420750</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>68</v>
+        <v>238</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3337950</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>638</v>
+        <v>154</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2202200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>690</v>
+        <v>309</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4418700</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B52" s="1">
         <v>28</v>
       </c>
+      <c r="C52" s="1">
+        <v>70840</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>63</v>
+        <v>420</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1062600</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>75900</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>70</v>
+        <v>815</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2061950</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="C56" s="1">
+        <v>303600</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Motilium M (Domperidone 10mg)</v>
+        <v>Carvedol (Carvedilol 6.25mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>28</v>
+        <v>308</v>
+      </c>
+      <c r="C57" s="1">
+        <v>779240</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B58" s="1">
-        <v>639</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B59" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C59" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B60" s="1">
-        <v>339</v>
+        <v>84</v>
+      </c>
+      <c r="C60" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B61" s="1">
-        <v>413</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>21720</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B62" s="1">
-        <v>247</v>
+        <v>70</v>
+      </c>
+      <c r="C62" s="1">
+        <v>253400</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B63" s="1">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>25340</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="C64" s="1">
+        <v>169400</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Panangin (Magnesium, potassium)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>84</v>
+        <v>139</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1681900</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>522</v>
+        <v>63</v>
+      </c>
+      <c r="C66" s="1">
+        <v>762300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Pepsan (Gaiazulene, dimeticone)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>49</v>
+        <v>91</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1101100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>444</v>
+        <v>37</v>
+      </c>
+      <c r="C68" s="1">
+        <v>447700</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>887</v>
+        <v>105</v>
+      </c>
+      <c r="C69" s="1">
+        <v>362250</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>336</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1159200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>161</v>
+        <v>21</v>
+      </c>
+      <c r="C71" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>168</v>
+        <v>112</v>
+      </c>
+      <c r="C72" s="1">
+        <v>347760</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>422</v>
+        <v>103</v>
+      </c>
+      <c r="C73" s="1">
+        <v>319815</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Digoxine qualy 0.25mg</v>
       </c>
       <c r="B74" s="1">
-        <v>406</v>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Digoxine qualy 0.25mg</v>
       </c>
       <c r="B75" s="1">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="C75" s="1">
+        <v>13500</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B76" s="1">
-        <v>1491</v>
+        <v>42</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12600</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+        <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C77" s="1">
+        <v>25800</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>12</v>
+        <v>648</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2161080</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Stilux (Rotundin 60mg)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>446600</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Stugeron (Cinnarizine 25mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="C80" s="1">
+        <v>308000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>829</v>
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>314</v>
+        <v>28</v>
+      </c>
+      <c r="C82" s="1">
+        <v>431200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>1102</v>
+        <v>68</v>
+      </c>
+      <c r="C83" s="1">
+        <v>673200</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>363</v>
+        <v>146</v>
+      </c>
+      <c r="C84" s="1">
+        <v>436540</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>5335</v>
+        <v>224</v>
+      </c>
+      <c r="C85" s="1">
+        <v>669760</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B86" s="1">
-        <v>210</v>
+        <v>168</v>
+      </c>
+      <c r="C86" s="1">
+        <v>502320</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>56</v>
+        <v>308</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1416800</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>116</v>
+        <v>560</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2576000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Voltaren 1% Emulgel 20g</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="C89" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Voltaren 50 (Diclofenac 50)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>28</v>
+        <v>252</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1441440</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>56</v>
+        <v>252</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1441440</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>263</v>
+        <v>56</v>
+      </c>
+      <c r="C92" s="1">
+        <v>320320</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Zlatko-50 (Sitagliptin)</v>
+        <v>Glucobay 100mg (Acarbose)</v>
       </c>
       <c r="B93" s="1">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="C93" s="1">
+        <v>54400</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>252</v>
+      </c>
+      <c r="C94" s="1">
+        <v>462420</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>84</v>
+      </c>
+      <c r="C95" s="1">
+        <v>154140</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>56</v>
+      </c>
+      <c r="C96" s="1">
+        <v>102760</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>168</v>
+      </c>
+      <c r="C97" s="1">
+        <v>637560</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>56</v>
+      </c>
+      <c r="C98" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>60</v>
+      </c>
+      <c r="C99" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>84</v>
+      </c>
+      <c r="C100" s="1">
+        <v>129360</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>224</v>
+      </c>
+      <c r="C101" s="1">
+        <v>344960</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>183</v>
+      </c>
+      <c r="C102" s="1">
+        <v>281820</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Herbesser 30mg (Diltiazem)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>21</v>
+      </c>
+      <c r="C103" s="1">
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1">
+        <v>34580</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>50</v>
+      </c>
+      <c r="C105" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>163</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3227400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>42</v>
+      </c>
+      <c r="C107" s="1">
+        <v>831600</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>78890</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>114</v>
+      </c>
+      <c r="C111" s="1">
+        <v>642390</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>63</v>
+      </c>
+      <c r="C112" s="1">
+        <v>355005</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>178</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1233540</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1">
+        <v>963270</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1">
+        <v>48510</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>56</v>
+      </c>
+      <c r="C116" s="1">
+        <v>94640</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Lipanthyl Supra (Fenofibrate) 160mg</v>
+      </c>
+      <c r="B117" s="1">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1">
+        <v>334320</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>168</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1256640</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>224</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1675520</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>231</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1727880</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>60</v>
+      </c>
+      <c r="C121" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>56</v>
+      </c>
+      <c r="C122" s="1">
+        <v>309120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1">
+        <v>40810</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>42</v>
+      </c>
+      <c r="C124" s="1">
+        <v>244860</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>256</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1492480</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>56</v>
+      </c>
+      <c r="C126" s="1">
+        <v>326480</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>56</v>
+      </c>
+      <c r="C127" s="1">
+        <v>326480</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>20</v>
+      </c>
+      <c r="C128" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>151</v>
+      </c>
+      <c r="C130" s="1">
+        <v>486220</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>431</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1387820</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>162</v>
+      </c>
+      <c r="C132" s="1">
+        <v>521640</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>15</v>
+      </c>
+      <c r="C133" s="1">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1">
+        <v>41860</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>349</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1043510</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>265</v>
+      </c>
+      <c r="C137" s="1">
+        <v>792350</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>224</v>
+      </c>
+      <c r="C138" s="1">
+        <v>669760</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>84</v>
+      </c>
+      <c r="C139" s="1">
+        <v>251160</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>30</v>
+      </c>
+      <c r="C140" s="1">
+        <v>135300</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>12</v>
+      </c>
+      <c r="C141" s="1">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>88</v>
+      </c>
+      <c r="C142" s="1">
+        <v>111760</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Methotrexat 2.5mg</v>
+      </c>
+      <c r="B143" s="1">
+        <v>36</v>
+      </c>
+      <c r="C143" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Mimosa</v>
+      </c>
+      <c r="B144" s="1">
+        <v>84</v>
+      </c>
+      <c r="C144" s="1">
+        <v>120120</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>666</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2680650</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>84</v>
+      </c>
+      <c r="C146" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>28</v>
+      </c>
+      <c r="C147" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>140</v>
+      </c>
+      <c r="C148" s="1">
+        <v>644000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>303</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1393800</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>28</v>
+      </c>
+      <c r="C150" s="1">
+        <v>128800</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>112</v>
+      </c>
+      <c r="C151" s="1">
+        <v>515200</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1">
+        <v>106540</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>98</v>
+      </c>
+      <c r="C153" s="1">
+        <v>745780</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>56</v>
+      </c>
+      <c r="C154" s="1">
+        <v>426160</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>60</v>
+      </c>
+      <c r="C155" s="1">
+        <v>456600</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42</v>
+      </c>
+      <c r="C156" s="1">
+        <v>353430</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>28</v>
+      </c>
+      <c r="C157" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>14</v>
+      </c>
+      <c r="C159" s="1">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>56</v>
+      </c>
+      <c r="C160" s="1">
+        <v>115640</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>140</v>
+      </c>
+      <c r="C161" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>336</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2217600</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>28</v>
+      </c>
+      <c r="C163" s="1">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Pepsan (Gaiazulene, dimeticone)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>84</v>
+      </c>
+      <c r="C164" s="1">
+        <v>417480</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>28</v>
+      </c>
+      <c r="C165" s="1">
+        <v>341600</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>85400</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Procoralan (Ivabradine 5mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1">
+        <v>85400</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>99</v>
+      </c>
+      <c r="C168" s="1">
+        <v>868230</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>242</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2122340</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>28</v>
+      </c>
+      <c r="C170" s="1">
+        <v>245560</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>413</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2680370</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>780</v>
+      </c>
+      <c r="C172" s="1">
+        <v>5062200</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>476</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3089240</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>28</v>
+      </c>
+      <c r="C174" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>126</v>
+      </c>
+      <c r="C175" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>140</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>85</v>
+      </c>
+      <c r="C177" s="1">
+        <v>748000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>28</v>
+      </c>
+      <c r="C178" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>56</v>
+      </c>
+      <c r="C179" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>168</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>84</v>
+      </c>
+      <c r="C181" s="1">
+        <v>600600</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42</v>
+      </c>
+      <c r="C182" s="1">
+        <v>166530</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>550</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2180750</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>84</v>
+      </c>
+      <c r="C184" s="1">
+        <v>333060</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>84</v>
+      </c>
+      <c r="C185" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>14</v>
+      </c>
+      <c r="C186" s="1">
+        <v>107800</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>248</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1909600</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>30</v>
+      </c>
+      <c r="C188" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Sagason (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>84</v>
+      </c>
+      <c r="C189" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>14</v>
+      </c>
+      <c r="C190" s="1">
+        <v>121660</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>56</v>
+      </c>
+      <c r="C191" s="1">
+        <v>302680</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1302</v>
+      </c>
+      <c r="C192" s="1">
+        <v>7037310</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>546</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2951130</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>86</v>
+      </c>
+      <c r="C194" s="1">
+        <v>464830</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>630</v>
+      </c>
+      <c r="C195" s="1">
+        <v>3405150</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>100</v>
+      </c>
+      <c r="C196" s="1">
+        <v>333500</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Stilux (Rotundin 60mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>28</v>
+      </c>
+      <c r="C197" s="1">
+        <v>33040</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Stilux (Rotundin 60mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>56</v>
+      </c>
+      <c r="C198" s="1">
+        <v>66080</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Stugeron (Cinnarizine 25mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>112</v>
+      </c>
+      <c r="C199" s="1">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>343</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3735270</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>266</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2896740</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>112</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1219680</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>37</v>
+      </c>
+      <c r="C203" s="1">
+        <v>402930</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>56</v>
+      </c>
+      <c r="C204" s="1">
+        <v>225400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>133</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1009470</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>224</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1700160</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>140</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1062600</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>84</v>
+      </c>
+      <c r="C208" s="1">
+        <v>720720</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>125</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1072500</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>945</v>
+      </c>
+      <c r="C210" s="1">
+        <v>8108100</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>294</v>
+      </c>
+      <c r="C211" s="1">
+        <v>2522520</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>102</v>
+      </c>
+      <c r="C212" s="1">
+        <v>875160</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>56</v>
+      </c>
+      <c r="C213" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>28</v>
+      </c>
+      <c r="C214" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>56</v>
+      </c>
+      <c r="C215" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B216" s="1">
+        <v>56</v>
+      </c>
+      <c r="C216" s="1">
+        <v>489720</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>254</v>
+      </c>
+      <c r="C217" s="1">
+        <v>496570</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>28</v>
+      </c>
+      <c r="C218" s="1">
+        <v>54740</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1232</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2408560</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3218</v>
+      </c>
+      <c r="C220" s="1">
+        <v>6291190</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>224</v>
+      </c>
+      <c r="C221" s="1">
+        <v>437920</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>320</v>
+      </c>
+      <c r="C222" s="1">
+        <v>625600</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Tyrotab (Tyrothricin, tetracain)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>5</v>
+      </c>
+      <c r="C223" s="1">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>154</v>
+      </c>
+      <c r="C224" s="1">
+        <v>371910</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>56</v>
+      </c>
+      <c r="C225" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>56</v>
+      </c>
+      <c r="C226" s="1">
+        <v>135240</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>28</v>
+      </c>
+      <c r="C227" s="1">
+        <v>505120</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>51</v>
+      </c>
+      <c r="C228" s="1">
+        <v>920040</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>164</v>
+      </c>
+      <c r="C231" s="1">
+        <v>867560</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>30</v>
+      </c>
+      <c r="C232" s="1">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>178</v>
+      </c>
+      <c r="C233" s="1">
+        <v>941620</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B234" s="1">
+        <v>238</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2487100</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B235" s="1">
+        <v>28</v>
+      </c>
+      <c r="C235" s="1">
+        <v>292600</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>70</v>
+      </c>
+      <c r="C236" s="1">
+        <v>731500</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Zopistad (Zopiclone 7.5mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>56</v>
+      </c>
+      <c r="C237" s="1">
+        <v>152880</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B238" s="1">
+        <v>14</v>
+      </c>
+      <c r="C238" s="1">
+        <v>135520</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B94" s="1">
-        <v>34065</v>
-      </c>
-      <c r="C94" s="1">
-        <v>NaN</v>
+      <c r="B239" s="1">
+        <v>39179</v>
+      </c>
+      <c r="C239" s="1">
+        <v>210664565</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C239"/>
   </ignoredErrors>
 </worksheet>
 </file>